--- a/Excel/镇魂街/新配置表/配置表/item道具.xlsx
+++ b/Excel/镇魂街/新配置表/配置表/item道具.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="736" uniqueCount="327">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="736" uniqueCount="328">
   <si>
     <t>sheet名</t>
   </si>
@@ -1011,18 +1011,10 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>int:&lt;</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>bool:&lt;</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>int:&gt;</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>int:&lt;&gt;</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -1044,6 +1036,18 @@
   </si>
   <si>
     <t>rowId</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>int:e&lt;&gt;</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>int:e&lt;</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>int:e&gt;</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -1557,7 +1561,7 @@
   <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1606,7 +1610,7 @@
         <v>9</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="F2" s="4" t="s">
         <v>10</v>
@@ -1621,13 +1625,13 @@
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="4" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="F3" s="4" t="s">
         <v>10</v>
@@ -1668,7 +1672,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R136"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="Q12" sqref="Q12"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
@@ -1691,7 +1697,7 @@
   <sheetData>
     <row r="1" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="B1" s="5" t="s">
         <v>11</v>
@@ -1774,7 +1780,7 @@
         <v>312</v>
       </c>
       <c r="J2" t="s">
-        <v>12</v>
+        <v>325</v>
       </c>
       <c r="K2" t="s">
         <v>315</v>
@@ -1786,19 +1792,19 @@
         <v>317</v>
       </c>
       <c r="N2" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="O2" t="s">
-        <v>318</v>
+        <v>326</v>
       </c>
       <c r="P2" t="s">
         <v>316</v>
       </c>
       <c r="Q2" t="s">
-        <v>320</v>
+        <v>327</v>
       </c>
       <c r="R2" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
     </row>
     <row r="3" spans="1:18" ht="45.75" customHeight="1" x14ac:dyDescent="0.2">
